--- a/xlsx/世界三大瀑布_intext.xlsx
+++ b/xlsx/世界三大瀑布_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>世界三大瀑布</t>
   </si>
@@ -29,7 +29,7 @@
     <t>巴西</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界三大瀑布</t>
+    <t>政策_政策_美国_世界三大瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -89,9 +89,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>維多利亞瀑布</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%80%91%E5%B8%83</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%93%9C%E8%98%87%E7%80%91%E5%B8%83</t>
-  </si>
-  <si>
-    <t>伊瓜蘇瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%91%E5%B8%83%E5%88%97%E8%A1%A8</t>
@@ -797,7 +791,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -823,10 +817,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -852,10 +846,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -881,10 +875,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
